--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1929,10 +1929,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2014,7 +2014,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2023,6 +2023,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2044,18 +2052,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2067,32 +2074,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2113,9 +2097,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2128,18 +2135,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2230,7 +2230,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,61 +2368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,55 +2380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,37 +2398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,7 +2518,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2538,11 +2553,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2572,36 +2602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2610,19 +2610,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2631,118 +2631,118 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3498,7 +3498,7 @@
   <dimension ref="D7:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\manager-service\src\main\resources\script\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19425" windowHeight="8445" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="8445" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="mgmt_service" sheetId="16" r:id="rId2"/>
+    <sheet name="MGMT_SERVICE" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -19,14 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -44,7 +49,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -56,7 +61,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -74,7 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -92,7 +97,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -110,7 +115,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -120,7 +125,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -138,7 +143,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -157,7 +162,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -175,7 +180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -186,7 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -204,7 +209,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -222,7 +227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -243,7 +248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -263,7 +268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -283,7 +288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -303,7 +308,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -323,7 +328,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -334,7 +339,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -352,7 +357,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -363,7 +368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -381,7 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -399,7 +404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -417,7 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -435,7 +440,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -482,7 +487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -500,7 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -518,7 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -536,7 +541,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -547,7 +552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -565,7 +570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -583,7 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -602,7 +607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -620,7 +625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -639,7 +644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -657,7 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -668,7 +673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -686,7 +691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -704,7 +709,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -727,7 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -745,7 +750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -763,7 +768,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -781,7 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -799,7 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -810,7 +815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -828,7 +833,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -838,7 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -858,7 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -868,7 +873,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>当</t>
     </r>
@@ -886,7 +891,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -904,7 +909,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -927,7 +932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -945,7 +950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -964,7 +969,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -983,7 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1002,7 +1007,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1022,7 +1027,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1041,7 +1046,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1075,7 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1095,7 +1100,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1106,7 +1111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1124,7 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1144,6 +1149,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1162,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1174,6 +1181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1192,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1210,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1228,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1242,7 +1253,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1260,7 +1271,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1278,7 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1296,7 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1314,7 +1325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1329,7 +1340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1338,7 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1356,7 +1367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1371,7 +1382,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1380,7 +1391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1398,7 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1412,7 +1423,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1430,7 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1448,7 +1459,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1467,7 +1478,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1490,7 +1501,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1508,7 +1519,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1526,7 +1537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1545,7 +1556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1565,7 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1575,7 +1586,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1584,7 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1595,7 +1606,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1613,7 +1624,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1631,7 +1642,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1649,7 +1660,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1668,7 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1686,7 +1697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1704,7 +1715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1723,7 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1741,7 +1752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1759,7 +1770,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1777,7 +1788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1796,7 +1807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1807,7 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1817,7 +1828,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1826,7 +1837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1837,7 +1848,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1855,7 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1866,7 +1877,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1884,7 +1895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1903,38 +1914,34 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
   </si>
   <si>
-    <t>mgmt_service</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
     <t>config-server</t>
   </si>
   <si>
     <t>manager-service</t>
+  </si>
+  <si>
+    <t>MGMT_SERVICE</t>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NAME</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1945,20 +1952,20 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1989,164 +1996,13 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2164,13 +2020,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2182,10 +2038,22 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2216,194 +2084,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2504,269 +2186,99 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2774,140 +2286,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2981,6 +2374,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2990,7 +2386,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3237,19 +2633,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9.75" style="1"/>
     <col min="3" max="3" width="100.625" customWidth="1"/>
@@ -3257,251 +2653,250 @@
     <col min="5" max="1025" width="9.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63.95" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="23"/>
+      <c r="E2" s="19"/>
     </row>
-    <row r="3" ht="48.95" customHeight="1" spans="1:7">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
-    <row r="4" ht="36" spans="1:7">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="3:5">
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="180" spans="3:6">
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="1:8" ht="157.5">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="234" spans="3:5">
-      <c r="C10" s="14" t="s">
+    <row r="10" spans="1:8" ht="204.75">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="3:5">
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="1:8" ht="47.25">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="3:5">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="29"/>
+    <row r="13" spans="1:8">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="24"/>
     </row>
-    <row r="14" ht="18" spans="3:5">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="29"/>
+    <row r="14" spans="1:8">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="114" spans="3:5">
-      <c r="C15" s="15" t="s">
+    <row r="15" spans="1:8" ht="118.5">
+      <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" ht="18" spans="3:4">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" ht="18" spans="3:5">
-      <c r="C19" s="17" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="20" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="29"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C26" s="11" t="s">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="29"/>
     </row>
-    <row r="27" ht="36" spans="3:3">
-      <c r="C27" s="21" t="s">
+    <row r="27" spans="3:5" ht="31.5">
+      <c r="C27" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -3510,34 +2905,34 @@
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>